--- a/Third-Year/BfK-B/3_Internes Recnungswesen/2_Kostenträger-, Kostenstellenrechnung/01_Schülervorlage_BAB_Kostenträger.xlsx
+++ b/Third-Year/BfK-B/3_Internes Recnungswesen/2_Kostenträger-, Kostenstellenrechnung/01_Schülervorlage_BAB_Kostenträger.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hackerspace\Source\School\Third-Year\BfK-B\3_Internes Recnungswesen\2_Kostenträger-, Kostenstellenrechnung\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590DB37A-3B93-4135-9BBF-F59091B8297E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="96" windowWidth="9696" windowHeight="6792" tabRatio="790" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="790" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GuV" sheetId="7" r:id="rId1"/>
@@ -16,17 +22,30 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Kostenartenrechnung!$A$1:$E$15</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jochen Wörner</author>
   </authors>
   <commentList>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -58,12 +77,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jochen Wörner</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -78,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="0">
+    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -86,25 +105,12 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">
-Materialeinzelkosten</t>
+          <t>Fertigungseinzelkosten
+(Fertigungslöhne)</t>
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Fertigungseinzelkosten
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="0">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0">
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -326,7 +332,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;DM&quot;_-;\-* #,##0.00\ &quot;DM&quot;_-;_-* &quot;-&quot;??\ &quot;DM&quot;_-;_-@_-"/>
   </numFmts>
@@ -684,9 +690,8 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -699,9 +704,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -733,10 +737,7 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -753,7 +754,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -811,7 +811,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -833,6 +833,8 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -880,6 +882,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -902,7 +907,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6148" name="Line 1"/>
+        <xdr:cNvPr id="6148" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004180000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -950,7 +961,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6149" name="Line 2"/>
+        <xdr:cNvPr id="6149" name="Line 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005180000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -998,7 +1015,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6150" name="Line 3"/>
+        <xdr:cNvPr id="6150" name="Line 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006180000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -1051,7 +1074,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2054" name="AutoShape 2"/>
+        <xdr:cNvPr id="2054" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
@@ -1104,7 +1133,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2055" name="AutoShape 3"/>
+        <xdr:cNvPr id="2055" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks/>
         </xdr:cNvSpPr>
@@ -1516,7 +1551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1532,199 +1567,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="79"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="78"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46" t="s">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="44">
         <v>650</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="C6" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="46">
         <v>1500</v>
       </c>
-      <c r="E6" s="48"/>
+      <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="48">
         <v>945</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="50">
         <v>160</v>
       </c>
-      <c r="E7" s="48"/>
+      <c r="E7" s="42"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="48">
         <v>160</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="56">
+      <c r="D8" s="50">
         <v>80</v>
       </c>
-      <c r="E8" s="48"/>
+      <c r="E8" s="42"/>
     </row>
     <row r="9" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="48">
         <v>330</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="56">
+      <c r="D9" s="50">
         <v>300</v>
       </c>
-      <c r="E9" s="48"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="48">
         <v>10</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="50">
         <v>125</v>
       </c>
-      <c r="E10" s="48"/>
+      <c r="E10" s="42"/>
     </row>
     <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="48">
         <v>40</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="56">
+      <c r="D11" s="50">
         <v>40</v>
       </c>
-      <c r="E11" s="48"/>
+      <c r="E11" s="42"/>
     </row>
     <row r="12" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="48">
         <v>45</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="56">
+      <c r="D12" s="50">
         <v>15</v>
       </c>
-      <c r="E12" s="48"/>
+      <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="48">
         <f>SUM(D6:D12)-SUM(B6:B12)</f>
         <v>40</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="42"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="48"/>
+      <c r="A14" s="47"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60">
+      <c r="A15" s="53"/>
+      <c r="B15" s="54">
         <f>SUM(B6:B14)</f>
         <v>2220</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61">
+      <c r="C15" s="54"/>
+      <c r="D15" s="55">
         <f>SUM(D6:D14)</f>
         <v>2220</v>
       </c>
-      <c r="E15" s="48"/>
+      <c r="E15" s="42"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1741,8 +1776,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
@@ -1756,222 +1791,136 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>650</v>
       </c>
-      <c r="C5" s="63"/>
-      <c r="D5" s="18">
+      <c r="C5" s="57"/>
+      <c r="D5" s="16">
         <v>650</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="16">
         <v>945</v>
       </c>
-      <c r="C6" s="63">
+      <c r="C6" s="57">
         <v>315</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <v>630</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <v>160</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="58">
         <v>53.333333333333336</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <v>106.66666666666667</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="18">
+      <c r="B8" s="16">
         <v>330</v>
       </c>
-      <c r="C8" s="63">
+      <c r="C8" s="57">
         <v>330</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="18">
+      <c r="B9" s="16">
         <v>45</v>
       </c>
-      <c r="C9" s="63">
+      <c r="C9" s="57">
         <v>45</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="16"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="65"/>
+      <c r="C10" s="59"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="65"/>
+      <c r="C11" s="59"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="65"/>
+      <c r="C12" s="59"/>
     </row>
     <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="66" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -1984,180 +1933,252 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="75" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="69" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="70"/>
+      <c r="C1" s="64"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="70"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="C3" s="70"/>
+      <c r="A3" s="1"/>
+      <c r="C3" s="64"/>
     </row>
     <row r="4" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="83" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="85"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="81"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="72" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+      <c r="C6" s="63">
+        <v>315</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21">
+        <v>210</v>
+      </c>
+      <c r="G6" s="21">
+        <v>105</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
+      <c r="C7" s="63">
+        <v>53.33</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22">
+        <v>35.56</v>
+      </c>
+      <c r="G7" s="22">
+        <v>17.78</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
+      <c r="C8" s="63">
+        <v>330</v>
+      </c>
+      <c r="D8" s="21">
+        <f>1/4*$C8</f>
+        <v>82.5</v>
+      </c>
+      <c r="E8" s="21">
+        <f t="shared" ref="E8:G9" si="0">1/4*$C8</f>
+        <v>82.5</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+      <c r="C9" s="63">
+        <v>45</v>
+      </c>
+      <c r="D9" s="21">
+        <f>1/4*$C9</f>
+        <v>11.25</v>
+      </c>
+      <c r="E9" s="21">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
+      <c r="G9" s="21">
+        <f t="shared" si="0"/>
+        <v>11.25</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="82" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68">
+        <f>SUM(D6:D12)</f>
+        <v>93.75</v>
+      </c>
+      <c r="E13" s="68">
+        <f t="shared" ref="E13:G13" si="1">SUM(E6:E12)</f>
+        <v>93.75</v>
+      </c>
+      <c r="F13" s="68">
+        <f t="shared" si="1"/>
+        <v>339.31</v>
+      </c>
+      <c r="G13" s="68">
+        <f t="shared" si="1"/>
+        <v>216.53</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="70">
+        <v>650</v>
+      </c>
+      <c r="E14" s="21">
+        <v>736.67</v>
+      </c>
+      <c r="F14" s="22">
+        <v>1414.17</v>
+      </c>
+      <c r="G14" s="22">
+        <v>1414.17</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="67"/>
+      <c r="D15">
+        <f>D13/D14*100</f>
+        <v>14.423076923076922</v>
+      </c>
+      <c r="E15" s="71">
+        <f>E13/E14</f>
+        <v>0.12726186759335931</v>
+      </c>
+      <c r="F15" s="71">
+        <f t="shared" ref="F15:G15" si="2">F13/F14</f>
+        <v>0.23993579272647558</v>
+      </c>
+      <c r="G15" s="71">
+        <f t="shared" si="2"/>
+        <v>0.1531145477559275</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2173,11 +2194,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2191,21 +2212,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D3" t="s">
@@ -2213,104 +2234,138 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="62"/>
+      <c r="B4" s="17">
+        <v>650</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="56"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="str">
+      <c r="A5" s="18" t="str">
         <f>"+ Materialgemeinkosten"</f>
         <v>+ Materialgemeinkosten</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
+      <c r="B5" s="22">
+        <f>B4*C5/100</f>
+        <v>93.73</v>
+      </c>
+      <c r="C5" s="22">
+        <v>14.42</v>
+      </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="str">
+      <c r="A6" s="18" t="str">
         <f>"+ Fertigungseinzelkosten"</f>
         <v>+ Fertigungseinzelkosten</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="22">
+        <v>736.67</v>
+      </c>
+      <c r="C6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="str">
+      <c r="A7" s="18" t="str">
         <f>"+ Fertigungsgemeinkosten"</f>
         <v>+ Fertigungsgemeinkosten</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="22">
+        <f>B6*C7</f>
+        <v>93.778090999999989</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.1273</v>
+      </c>
       <c r="D7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="str">
+      <c r="A8" s="29" t="str">
         <f>"= Herstellkosten der Produktion"</f>
         <v>= Herstellkosten der Produktion</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="28"/>
+      <c r="B8" s="24">
+        <f>SUM(B4:B7)</f>
+        <v>1574.178091</v>
+      </c>
+      <c r="C8" s="26"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="str">
+      <c r="A9" s="18" t="str">
         <f>"+ Bestandsminderung"</f>
         <v>+ Bestandsminderung</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="12"/>
     </row>
     <row r="10" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="str">
+      <c r="A10" s="23" t="str">
         <f>"- Bestandserhöhung"</f>
         <v>- Bestandserhöhung</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="29"/>
+      <c r="B10" s="25">
+        <v>160</v>
+      </c>
+      <c r="C10" s="27"/>
     </row>
     <row r="11" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="str">
+      <c r="A11" s="29" t="str">
         <f>"= Herstellkosten des Umsatzes"</f>
         <v>= Herstellkosten des Umsatzes</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="28"/>
+      <c r="B11" s="24">
+        <v>1414.17</v>
+      </c>
+      <c r="C11" s="26"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="str">
+      <c r="A12" s="18" t="str">
         <f>"+ Verwaltungsgeinkosten"</f>
         <v>+ Verwaltungsgeinkosten</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="22">
+        <f>B11*C12</f>
+        <v>339.25938300000001</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.2399</v>
+      </c>
       <c r="D12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="str">
+      <c r="A13" s="23" t="str">
         <f>"+ Vertriebsgemeinkosten"</f>
         <v>+ Vertriebsgemeinkosten</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="B13" s="25">
+        <f>B11*C13</f>
+        <v>216.50942700000004</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.15310000000000001</v>
+      </c>
       <c r="D13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="str">
+      <c r="A14" s="29" t="str">
         <f>"= Selbstkosten"</f>
         <v>= Selbstkosten</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="24">
+        <f>SUM(B11:B13)</f>
+        <v>1969.9388100000001</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2323,11 +2378,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2341,208 +2396,234 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="F4" s="67" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="30">
+        <v>300</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="F4" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
     </row>
     <row r="5" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="str">
+      <c r="A5" s="14" t="str">
         <f>"+ Materialgemeinkostenzuschlag"</f>
         <v>+ Materialgemeinkostenzuschlag</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
+      <c r="B5" s="25">
+        <v>14.422000000000001</v>
+      </c>
+      <c r="C5" s="32">
+        <v>43.27</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="str">
+      <c r="A6" s="38" t="str">
         <f>"= Materialkosten"</f>
         <v>= Materialkosten</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="40"/>
-      <c r="F6" s="67" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35">
+        <v>343.27</v>
+      </c>
+      <c r="F6" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="str">
+      <c r="A7" s="13" t="str">
         <f>"Fertigungseinzelkosten"</f>
         <v>Fertigungseinzelkosten</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="30">
+        <v>160</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="str">
+      <c r="A8" s="13" t="str">
         <f>"+ Fertigungsgemeinkostenzuschlag"</f>
         <v>+ Fertigungsgemeinkostenzuschlag</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="F8" s="67" t="s">
+      <c r="B8" s="22">
+        <v>12.73</v>
+      </c>
+      <c r="C8" s="30">
+        <v>20.36</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="F8" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
     </row>
     <row r="9" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="str">
+      <c r="A9" s="14" t="str">
         <f>"+ Sondereinzelkosten der Fertigung"</f>
         <v>+ Sondereinzelkosten der Fertigung</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-    </row>
-    <row r="10" spans="1:11" s="13" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="str">
+      <c r="B9" s="27"/>
+      <c r="C9" s="32">
+        <v>120</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+    </row>
+    <row r="10" spans="1:11" s="11" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="str">
         <f>"= Fertigungskosten"</f>
         <v>= Fertigungskosten</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="F10" s="68" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37">
+        <f>SUM(C7:C9)</f>
+        <v>300.36</v>
+      </c>
+      <c r="F10" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="68"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
     </row>
     <row r="11" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="str">
+      <c r="A11" s="38" t="str">
         <f>"= Herstellkosten"</f>
         <v>= Herstellkosten</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35">
+        <f>SUM(D6:D10)</f>
+        <v>643.63</v>
+      </c>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="str">
+      <c r="A12" s="13" t="str">
         <f>"+ Verwaltungsgemeinkostenzuschlag"</f>
         <v>+ Verwaltungsgemeinkostenzuschlag</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
+      <c r="B12" s="22">
+        <v>23.99</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="str">
+      <c r="A13" s="13" t="str">
         <f>"+ Vertriebsgemeinkostenzuschlag"</f>
         <v>+ Vertriebsgemeinkostenzuschlag</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
+      <c r="B13" s="22">
+        <v>15.31</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
     </row>
     <row r="14" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="str">
+      <c r="A14" s="14" t="str">
         <f>"+ Sondereinzelkosten des Vertriebs"</f>
         <v>+ Sondereinzelkosten des Vertriebs</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="str">
+      <c r="A15" s="38" t="str">
         <f>"= Selbstkosten"</f>
         <v>= Selbstkosten</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>

--- a/Third-Year/BfK-B/3_Internes Recnungswesen/2_Kostenträger-, Kostenstellenrechnung/01_Schülervorlage_BAB_Kostenträger.xlsx
+++ b/Third-Year/BfK-B/3_Internes Recnungswesen/2_Kostenträger-, Kostenstellenrechnung/01_Schülervorlage_BAB_Kostenträger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hackerspace\Source\School\Third-Year\BfK-B\3_Internes Recnungswesen\2_Kostenträger-, Kostenstellenrechnung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valarius\H4ck3r\source\School\Third-Year\BfK-B\3_Internes Recnungswesen\2_Kostenträger-, Kostenstellenrechnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590DB37A-3B93-4135-9BBF-F59091B8297E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554FC45E-3323-4BA8-8733-E9AEDE7BF113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="790" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="790" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GuV" sheetId="7" r:id="rId1"/>
@@ -62,6 +62,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 - Auf Fertigungslöhne entfallen 2/3, auf Gehälter (Verwaltung/Vertrieb) 1/3 der Kostenposition.
@@ -89,6 +90,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">- Laut Gehaltsliste entfallen 210 T€ auf die Verwaltung, 105 T€
  auf Vertrieb.
@@ -104,6 +106,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Fertigungseinzelkosten
 (Fertigungslöhne)</t>
@@ -117,6 +120,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Herstelkosten des Umsatzes
 </t>
@@ -130,6 +134,7 @@
             <sz val="8"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Herstelkosten des Umsatzes
 </t>
@@ -344,6 +349,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -372,6 +378,7 @@
       <sz val="8"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -388,21 +395,25 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1558,15 +1569,15 @@
       <selection activeCell="C7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="72" t="s">
         <v>38</v>
       </c>
@@ -1578,8 +1589,8 @@
       <c r="G1" s="72"/>
       <c r="H1" s="72"/>
     </row>
-    <row r="2" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>39</v>
       </c>
@@ -1588,7 +1599,7 @@
       <c r="D3" s="75"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="76" t="s">
         <v>40</v>
       </c>
@@ -1599,7 +1610,7 @@
       <c r="D4" s="78"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="40" t="s">
         <v>42</v>
@@ -1611,7 +1622,7 @@
       <c r="E5" s="42"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
         <v>0</v>
       </c>
@@ -1626,7 +1637,7 @@
       </c>
       <c r="E6" s="42"/>
     </row>
-    <row r="7" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
         <v>1</v>
       </c>
@@ -1641,7 +1652,7 @@
       </c>
       <c r="E7" s="42"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
         <v>2</v>
       </c>
@@ -1656,7 +1667,7 @@
       </c>
       <c r="E8" s="42"/>
     </row>
-    <row r="9" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
         <v>3</v>
       </c>
@@ -1671,7 +1682,7 @@
       </c>
       <c r="E9" s="42"/>
     </row>
-    <row r="10" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
         <v>47</v>
       </c>
@@ -1686,7 +1697,7 @@
       </c>
       <c r="E10" s="42"/>
     </row>
-    <row r="11" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="51" t="s">
         <v>49</v>
       </c>
@@ -1701,7 +1712,7 @@
       </c>
       <c r="E11" s="42"/>
     </row>
-    <row r="12" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="47" t="s">
         <v>4</v>
       </c>
@@ -1716,7 +1727,7 @@
       </c>
       <c r="E12" s="42"/>
     </row>
-    <row r="13" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="47" t="s">
         <v>52</v>
       </c>
@@ -1728,14 +1739,14 @@
       <c r="D13" s="50"/>
       <c r="E13" s="42"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="49"/>
       <c r="C14" s="49"/>
       <c r="D14" s="52"/>
       <c r="E14" s="42"/>
     </row>
-    <row r="15" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" s="54">
         <f>SUM(B6:B14)</f>
@@ -1748,14 +1759,14 @@
       </c>
       <c r="E15" s="42"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="42"/>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
       <c r="E16" s="42"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
       <c r="D17" s="42"/>
@@ -1780,29 +1791,29 @@
   <dimension ref="A2:G23"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
@@ -1817,7 +1828,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>0</v>
       </c>
@@ -1830,7 +1841,7 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +1856,7 @@
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>2</v>
       </c>
@@ -1862,7 +1873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>3</v>
       </c>
@@ -1875,7 +1886,7 @@
       <c r="D8" s="16"/>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>4</v>
       </c>
@@ -1887,16 +1898,16 @@
       </c>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" s="59"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" s="59"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" s="59"/>
     </row>
-    <row r="13" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="60" t="s">
@@ -1909,13 +1920,13 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1936,33 +1947,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="69" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C1" s="64"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="64"/>
     </row>
-    <row r="3" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="C3" s="64"/>
     </row>
-    <row r="4" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1977,7 +1988,7 @@
       <c r="F4" s="80"/>
       <c r="G4" s="81"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="5"/>
       <c r="C5" s="66" t="s">
@@ -1996,7 +2007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
@@ -2015,7 +2026,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
@@ -2034,7 +2045,7 @@
         <v>17.78</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="23.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>3</v>
       </c>
@@ -2061,7 +2072,7 @@
         <v>82.5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>4</v>
       </c>
@@ -2088,7 +2099,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="67"/>
@@ -2097,7 +2108,7 @@
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="67"/>
@@ -2106,7 +2117,7 @@
       <c r="F11" s="21"/>
       <c r="G11" s="21"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="67"/>
@@ -2115,7 +2126,7 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="82" t="s">
         <v>13</v>
       </c>
@@ -2138,7 +2149,7 @@
         <v>216.53</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>36</v>
       </c>
@@ -2157,7 +2168,7 @@
         <v>1414.17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>37</v>
       </c>
@@ -2197,31 +2208,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.109375" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="5" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="13" t="s">
         <v>29</v>
@@ -2233,7 +2244,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>26</v>
       </c>
@@ -2243,7 +2254,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="56"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="str">
         <f>"+ Materialgemeinkosten"</f>
         <v>+ Materialgemeinkosten</v>
@@ -2259,7 +2270,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="str">
         <f>"+ Fertigungseinzelkosten"</f>
         <v>+ Fertigungseinzelkosten</v>
@@ -2269,7 +2280,7 @@
       </c>
       <c r="C6" s="12"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="str">
         <f>"+ Fertigungsgemeinkosten"</f>
         <v>+ Fertigungsgemeinkosten</v>
@@ -2285,7 +2296,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="str">
         <f>"= Herstellkosten der Produktion"</f>
         <v>= Herstellkosten der Produktion</v>
@@ -2296,7 +2307,7 @@
       </c>
       <c r="C8" s="26"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="str">
         <f>"+ Bestandsminderung"</f>
         <v>+ Bestandsminderung</v>
@@ -2304,7 +2315,7 @@
       <c r="B9" s="22"/>
       <c r="C9" s="12"/>
     </row>
-    <row r="10" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="str">
         <f>"- Bestandserhöhung"</f>
         <v>- Bestandserhöhung</v>
@@ -2314,7 +2325,7 @@
       </c>
       <c r="C10" s="27"/>
     </row>
-    <row r="11" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="str">
         <f>"= Herstellkosten des Umsatzes"</f>
         <v>= Herstellkosten des Umsatzes</v>
@@ -2324,7 +2335,7 @@
       </c>
       <c r="C11" s="26"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="str">
         <f>"+ Verwaltungsgeinkosten"</f>
         <v>+ Verwaltungsgeinkosten</v>
@@ -2340,7 +2351,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="str">
         <f>"+ Vertriebsgemeinkosten"</f>
         <v>+ Vertriebsgemeinkosten</v>
@@ -2356,7 +2367,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="str">
         <f>"= Selbstkosten"</f>
         <v>= Selbstkosten</v>
@@ -2381,31 +2392,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView zoomScale="140" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.109375" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
         <v>28</v>
       </c>
@@ -2424,7 +2435,7 @@
       <c r="J3" s="61"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
@@ -2442,7 +2453,7 @@
       <c r="J4" s="61"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="str">
         <f>"+ Materialgemeinkostenzuschlag"</f>
         <v>+ Materialgemeinkostenzuschlag</v>
@@ -2461,7 +2472,7 @@
       <c r="J5" s="61"/>
       <c r="K5" s="61"/>
     </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="str">
         <f>"= Materialkosten"</f>
         <v>= Materialkosten</v>
@@ -2480,7 +2491,7 @@
       <c r="J6" s="61"/>
       <c r="K6" s="61"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="str">
         <f>"Fertigungseinzelkosten"</f>
         <v>Fertigungseinzelkosten</v>
@@ -2497,7 +2508,7 @@
       <c r="J7" s="61"/>
       <c r="K7" s="61"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="str">
         <f>"+ Fertigungsgemeinkostenzuschlag"</f>
         <v>+ Fertigungsgemeinkostenzuschlag</v>
@@ -2518,7 +2529,7 @@
       <c r="J8" s="61"/>
       <c r="K8" s="61"/>
     </row>
-    <row r="9" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="str">
         <f>"+ Sondereinzelkosten der Fertigung"</f>
         <v>+ Sondereinzelkosten der Fertigung</v>
@@ -2535,7 +2546,7 @@
       <c r="J9" s="61"/>
       <c r="K9" s="61"/>
     </row>
-    <row r="10" spans="1:11" s="11" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" s="11" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="str">
         <f>"= Fertigungskosten"</f>
         <v>= Fertigungskosten</v>
@@ -2555,7 +2566,7 @@
       <c r="J10" s="62"/>
       <c r="K10" s="62"/>
     </row>
-    <row r="11" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A11" s="38" t="str">
         <f>"= Herstellkosten"</f>
         <v>= Herstellkosten</v>
@@ -2573,7 +2584,7 @@
       <c r="J11" s="61"/>
       <c r="K11" s="61"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="str">
         <f>"+ Verwaltungsgemeinkostenzuschlag"</f>
         <v>+ Verwaltungsgemeinkostenzuschlag</v>
@@ -2590,7 +2601,7 @@
       <c r="J12" s="61"/>
       <c r="K12" s="61"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="str">
         <f>"+ Vertriebsgemeinkostenzuschlag"</f>
         <v>+ Vertriebsgemeinkostenzuschlag</v>
@@ -2607,7 +2618,7 @@
       <c r="J13" s="61"/>
       <c r="K13" s="61"/>
     </row>
-    <row r="14" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="str">
         <f>"+ Sondereinzelkosten des Vertriebs"</f>
         <v>+ Sondereinzelkosten des Vertriebs</v>
@@ -2616,7 +2627,7 @@
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
     </row>
-    <row r="15" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="str">
         <f>"= Selbstkosten"</f>
         <v>= Selbstkosten</v>
